--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>GTIN</t>
   </si>
@@ -25,64 +25,82 @@
     <t>variant</t>
   </si>
   <si>
-    <t>GS1Attr_name</t>
-  </si>
-  <si>
-    <t>GS1Attr_value</t>
-  </si>
-  <si>
-    <t>4605865487766</t>
-  </si>
-  <si>
-    <t>4610043553621</t>
-  </si>
-  <si>
-    <t>4610043553522</t>
+    <t>PROD_DESC</t>
+  </si>
+  <si>
+    <t>PUBLICATION_DATE</t>
+  </si>
+  <si>
+    <t>PROD_REGDATE</t>
+  </si>
+  <si>
+    <t>PROD_COVER_EDITOR</t>
+  </si>
+  <si>
+    <t>PROD_COVER_DATEEDIT</t>
+  </si>
+  <si>
+    <t>TNVED_2</t>
+  </si>
+  <si>
+    <t>4620064064990</t>
+  </si>
+  <si>
+    <t>4620064064969</t>
+  </si>
+  <si>
+    <t>4620064150488</t>
+  </si>
+  <si>
+    <t>4640057423023</t>
+  </si>
+  <si>
+    <t>4630073864474</t>
+  </si>
+  <si>
+    <t>4630073864627</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>GS1_MEMBER_GLN</t>
-  </si>
-  <si>
-    <t>WEB_90001707</t>
-  </si>
-  <si>
-    <t>WEB_90001726</t>
-  </si>
-  <si>
-    <t>PROD_DESC</t>
-  </si>
-  <si>
-    <t>WEB_90001880</t>
-  </si>
-  <si>
-    <t>TNVED_2</t>
-  </si>
-  <si>
-    <t>4605865999993</t>
-  </si>
-  <si>
-    <t>4660020219996</t>
-  </si>
-  <si>
-    <t>ВЗРОСЛЫЙ</t>
-  </si>
-  <si>
-    <t>тестовый БАД. ТНВЭД=1210209000</t>
-  </si>
-  <si>
-    <t>тестовая рекомендация по употреблению</t>
-  </si>
-  <si>
-    <t>1210</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>м 7-1170 Б Ботинки мальчиковые байка (т.серый, 41)</t>
+  </si>
+  <si>
+    <t>м 7-1170 Б Ботинки мальчиковые байка (коричневый, 41)</t>
+  </si>
+  <si>
+    <t>м 7-1170 Ботинки мальчиковые байка (коричневый, 39)</t>
+  </si>
+  <si>
+    <t>2020-01-22T03:00:00.000+03:00</t>
+  </si>
+  <si>
+    <t>2020-09-08T03:00:00.000+03:00</t>
+  </si>
+  <si>
+    <t>2020-01-22T13:14:18.000+03:00</t>
+  </si>
+  <si>
+    <t>2020-01-22T13:14:16.000+03:00</t>
+  </si>
+  <si>
+    <t>2020-09-08T17:01:56.000+03:00</t>
+  </si>
+  <si>
+    <t>Системный пользователь</t>
+  </si>
+  <si>
+    <t>2020-01-22T13:14:19.000+03:00</t>
+  </si>
+  <si>
+    <t>2020-01-22T13:14:17.000+03:00</t>
+  </si>
+  <si>
+    <t>6403</t>
   </si>
 </sst>
 </file>
@@ -440,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,169 +480,137 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
